--- a/Loops Export.xlsx
+++ b/Loops Export.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="452">
   <si>
     <t>SPM-LIT-3521</t>
   </si>
@@ -1133,177 +1133,135 @@
     <t>IC-SPM-IJB-6650-01</t>
   </si>
   <si>
-    <t>SPM-HS-6602B1</t>
-  </si>
-  <si>
-    <t>SPM-HS-6602B2</t>
+    <t>IC-SPM-XI-9105-LCP01-01</t>
+  </si>
+  <si>
+    <t>TBDI03-3</t>
+  </si>
+  <si>
+    <t>TBDI03-4</t>
+  </si>
+  <si>
+    <t>TBDI03-11</t>
+  </si>
+  <si>
+    <t>TBDI03-12</t>
+  </si>
+  <si>
+    <t>6BK</t>
+  </si>
+  <si>
+    <t>TBAI01-21</t>
+  </si>
+  <si>
+    <t>6BU</t>
+  </si>
+  <si>
+    <t>TBAI01-22</t>
+  </si>
+  <si>
+    <t>TBRSLS01-4+</t>
+  </si>
+  <si>
+    <t>TBRSLS01-4-</t>
+  </si>
+  <si>
+    <t>TBDI03-17</t>
+  </si>
+  <si>
+    <t>TBDI03-18</t>
+  </si>
+  <si>
+    <t>TBRSLS01-8+</t>
+  </si>
+  <si>
+    <t>TBRSLS01-8-</t>
+  </si>
+  <si>
+    <t>TBRSLS01-9+</t>
+  </si>
+  <si>
+    <t>TBRSLS01-9-</t>
+  </si>
+  <si>
+    <t>IC-SPM-IJB-6640-01</t>
+  </si>
+  <si>
+    <t>IC-SPM-IJB-6650-02</t>
+  </si>
+  <si>
+    <t>IC-SPM-IJB-6620-02</t>
+  </si>
+  <si>
+    <t>TBRSLS01-14+</t>
+  </si>
+  <si>
+    <t>TBRSLS01-14-</t>
+  </si>
+  <si>
+    <t>IC-SPM-IJB-6610-02</t>
+  </si>
+  <si>
+    <t>TBDO05-3</t>
+  </si>
+  <si>
+    <t>TBDO05-4</t>
+  </si>
+  <si>
+    <t>IC-SPM-IJB-3520-02</t>
+  </si>
+  <si>
+    <t>TBRSLS01-15+</t>
+  </si>
+  <si>
+    <t>TBRSLS01-15-</t>
+  </si>
+  <si>
+    <t>IC-SPM-IJB-3510-02</t>
+  </si>
+  <si>
+    <t>TBDO05-5</t>
+  </si>
+  <si>
+    <t>TBDO05-6</t>
+  </si>
+  <si>
+    <t>IC-SPM-IJB-9410-01</t>
+  </si>
+  <si>
+    <t>TBDI03-23</t>
+  </si>
+  <si>
+    <t>TBDI03-24</t>
+  </si>
+  <si>
+    <t>7BK</t>
+  </si>
+  <si>
+    <t>TBDI03-25</t>
+  </si>
+  <si>
+    <t>7BU</t>
+  </si>
+  <si>
+    <t>TBDI03-26</t>
+  </si>
+  <si>
+    <t>TBDI03-27</t>
+  </si>
+  <si>
+    <t>TBDI03-28</t>
   </si>
   <si>
     <t>5BK</t>
   </si>
   <si>
+    <t>TBDI03-29</t>
+  </si>
+  <si>
     <t>5BU</t>
   </si>
   <si>
-    <t>IC-SPM-XI-9105-LCP01-01</t>
-  </si>
-  <si>
-    <t>TBDI03-3</t>
-  </si>
-  <si>
-    <t>TBDI03-4</t>
-  </si>
-  <si>
-    <t>TBDI03-11</t>
-  </si>
-  <si>
-    <t>TBDI03-12</t>
-  </si>
-  <si>
-    <t>SPM-HS-3501B1</t>
-  </si>
-  <si>
-    <t>TBDI03-13</t>
-  </si>
-  <si>
-    <t>TBDI03-14</t>
-  </si>
-  <si>
-    <t>SPM-HS-3501B2</t>
-  </si>
-  <si>
-    <t>TBDI03-15</t>
-  </si>
-  <si>
-    <t>TBDI03-16</t>
-  </si>
-  <si>
-    <t>6BK</t>
-  </si>
-  <si>
-    <t>TBAI01-21</t>
-  </si>
-  <si>
-    <t>6BU</t>
-  </si>
-  <si>
-    <t>TBAI01-22</t>
-  </si>
-  <si>
-    <t>TBRSLS01-4+</t>
-  </si>
-  <si>
-    <t>TBRSLS01-4-</t>
-  </si>
-  <si>
-    <t>TBDI03-17</t>
-  </si>
-  <si>
-    <t>TBDI03-18</t>
-  </si>
-  <si>
-    <t>SPM-HS-6601B1</t>
-  </si>
-  <si>
-    <t>TBDI03-19</t>
-  </si>
-  <si>
-    <t>TBDI03-20</t>
-  </si>
-  <si>
-    <t>SPM-HS-6601B2</t>
-  </si>
-  <si>
-    <t>TBDI03-21</t>
-  </si>
-  <si>
-    <t>TBDI03-22</t>
-  </si>
-  <si>
-    <t>TBRSLS01-8+</t>
-  </si>
-  <si>
-    <t>TBRSLS01-8-</t>
-  </si>
-  <si>
-    <t>TBRSLS01-9+</t>
-  </si>
-  <si>
-    <t>TBRSLS01-9-</t>
-  </si>
-  <si>
-    <t>IC-SPM-IJB-6640-01</t>
-  </si>
-  <si>
-    <t>IC-SPM-IJB-6650-02</t>
-  </si>
-  <si>
-    <t>IC-SPM-IJB-6620-02</t>
-  </si>
-  <si>
-    <t>TBRSLS01-14+</t>
-  </si>
-  <si>
-    <t>TBRSLS01-14-</t>
-  </si>
-  <si>
-    <t>IC-SPM-IJB-6610-02</t>
-  </si>
-  <si>
-    <t>TBDO05-3</t>
-  </si>
-  <si>
-    <t>TBDO05-4</t>
-  </si>
-  <si>
-    <t>IC-SPM-IJB-3520-02</t>
-  </si>
-  <si>
-    <t>TBRSLS01-15+</t>
-  </si>
-  <si>
-    <t>TBRSLS01-15-</t>
-  </si>
-  <si>
-    <t>IC-SPM-IJB-3510-02</t>
-  </si>
-  <si>
-    <t>TBDO05-5</t>
-  </si>
-  <si>
-    <t>TBDO05-6</t>
-  </si>
-  <si>
-    <t>IC-SPM-IJB-9410-01</t>
-  </si>
-  <si>
-    <t>TBDI03-23</t>
-  </si>
-  <si>
-    <t>TBDI03-24</t>
-  </si>
-  <si>
-    <t>7BK</t>
-  </si>
-  <si>
-    <t>TBDI03-25</t>
-  </si>
-  <si>
-    <t>7BU</t>
-  </si>
-  <si>
-    <t>TBDI03-26</t>
-  </si>
-  <si>
-    <t>TBDI03-27</t>
-  </si>
-  <si>
-    <t>TBDI03-28</t>
-  </si>
-  <si>
-    <t>TBDI03-29</t>
-  </si>
-  <si>
     <t>TBDI03-30</t>
   </si>
   <si>
@@ -1422,36 +1380,6 @@
   </si>
   <si>
     <t>TBDI03-32</t>
-  </si>
-  <si>
-    <t>SPM-HPU-9401-SW11-01</t>
-  </si>
-  <si>
-    <t>9BK</t>
-  </si>
-  <si>
-    <t>TBDI03-47</t>
-  </si>
-  <si>
-    <t>9BU</t>
-  </si>
-  <si>
-    <t>TBDI03-48</t>
-  </si>
-  <si>
-    <t>SPM-HPU-9401-SW11-02</t>
-  </si>
-  <si>
-    <t>10BK</t>
-  </si>
-  <si>
-    <t>TBDI03-49</t>
-  </si>
-  <si>
-    <t>10BU</t>
-  </si>
-  <si>
-    <t>TBDI03-50</t>
   </si>
 </sst>
 </file>
@@ -1923,14 +1851,13 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2876,15 +2803,15 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2912,10 +2839,10 @@
         <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>369</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2926,11 +2853,11 @@
       <c r="L27">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>47</v>
+      <c r="M27" t="s">
+        <v>370</v>
       </c>
       <c r="N27" t="s">
-        <v>369</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2956,10 +2883,10 @@
         <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -2970,11 +2897,11 @@
       <c r="L28">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>48</v>
+      <c r="M28" t="s">
+        <v>371</v>
       </c>
       <c r="N28" t="s">
-        <v>369</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2991,27 +2918,19 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" t="s">
-        <v>370</v>
-      </c>
-      <c r="I29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
+      <c r="H29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" t="s">
-        <v>371</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>49</v>
-      </c>
-      <c r="N29" t="s">
-        <v>370</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3036,25 +2955,25 @@
         <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30" t="s">
         <v>372</v>
       </c>
-      <c r="L30">
-        <v>5</v>
-      </c>
-      <c r="M30">
-        <v>50</v>
-      </c>
       <c r="N30" t="s">
-        <v>370</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3079,19 +2998,27 @@
       <c r="G31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
       <c r="K31" t="s">
+        <v>361</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
         <v>373</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -3107,27 +3034,19 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
+      <c r="H32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32">
-        <v>4</v>
-      </c>
-      <c r="M32" t="s">
-        <v>374</v>
-      </c>
-      <c r="N32" t="s">
-        <v>62</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3152,25 +3071,25 @@
         <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M33" t="s">
         <v>375</v>
       </c>
       <c r="N33" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3195,19 +3114,27 @@
       <c r="G34" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
       <c r="K34" t="s">
-        <v>349</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+        <v>376</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34" t="s">
+        <v>377</v>
+      </c>
+      <c r="N34" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -3223,27 +3150,19 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
+      <c r="H35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="K35" t="s">
-        <v>359</v>
-      </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35" t="s">
-        <v>376</v>
-      </c>
-      <c r="N35" t="s">
-        <v>65</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3268,25 +3187,25 @@
         <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N36" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3311,19 +3230,27 @@
       <c r="G37" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
       <c r="K37" t="s">
-        <v>349</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37" t="s">
+        <v>379</v>
+      </c>
+      <c r="N37" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3347,27 +3274,19 @@
       <c r="G38" t="s">
         <v>52</v>
       </c>
-      <c r="H38" t="s">
-        <v>378</v>
-      </c>
-      <c r="I38" t="s">
-        <v>55</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
-      </c>
+      <c r="H38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
-      <c r="M38" t="s">
-        <v>379</v>
-      </c>
-      <c r="N38" t="s">
-        <v>378</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3392,25 +3311,25 @@
         <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" t="s">
         <v>380</v>
       </c>
       <c r="N39" t="s">
-        <v>378</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3428,25 +3347,25 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>361</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40" t="s">
         <v>381</v>
       </c>
-      <c r="I40" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40">
-        <v>5</v>
-      </c>
-      <c r="K40" t="s">
-        <v>371</v>
-      </c>
-      <c r="L40">
-        <v>5</v>
-      </c>
-      <c r="M40" t="s">
-        <v>382</v>
-      </c>
       <c r="N40" t="s">
-        <v>381</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3471,27 +3390,19 @@
       <c r="G41" t="s">
         <v>62</v>
       </c>
-      <c r="H41" t="s">
-        <v>381</v>
-      </c>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41">
-        <v>5</v>
-      </c>
+      <c r="H41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" t="s">
-        <v>372</v>
-      </c>
-      <c r="L41">
-        <v>5</v>
-      </c>
-      <c r="M41" t="s">
-        <v>383</v>
-      </c>
-      <c r="N41" t="s">
-        <v>381</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3515,19 +3426,27 @@
       <c r="G42" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
       <c r="K42" t="s">
-        <v>363</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>382</v>
+      </c>
+      <c r="N42" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -3544,25 +3463,25 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="J43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N43" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3587,27 +3506,19 @@
       <c r="G44" t="s">
         <v>65</v>
       </c>
-      <c r="H44" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J44">
-        <v>6</v>
-      </c>
+      <c r="H44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" t="s">
-        <v>386</v>
-      </c>
-      <c r="L44">
-        <v>6</v>
-      </c>
-      <c r="M44" t="s">
-        <v>387</v>
-      </c>
-      <c r="N44" t="s">
-        <v>69</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3631,19 +3542,27 @@
       <c r="G45" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
       <c r="K45" t="s">
-        <v>358</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>384</v>
+      </c>
+      <c r="N45" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -3660,25 +3579,25 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N46" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3703,27 +3622,19 @@
       <c r="G47" t="s">
         <v>67</v>
       </c>
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
+      <c r="H47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" t="s">
-        <v>35</v>
-      </c>
-      <c r="L47">
-        <v>4</v>
-      </c>
-      <c r="M47" t="s">
-        <v>389</v>
-      </c>
-      <c r="N47" t="s">
-        <v>73</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3747,19 +3658,27 @@
       <c r="G48" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="H48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
       <c r="K48" t="s">
-        <v>363</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -3784,25 +3703,25 @@
         <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>359</v>
+        <v>56</v>
       </c>
       <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49" t="s">
-        <v>390</v>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
       </c>
       <c r="N49" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3827,27 +3746,19 @@
       <c r="G50" t="s">
         <v>67</v>
       </c>
-      <c r="H50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50">
-        <v>3</v>
-      </c>
+      <c r="H50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" t="s">
-        <v>361</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50" t="s">
-        <v>391</v>
-      </c>
-      <c r="N50" t="s">
-        <v>75</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3863,19 +3774,27 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="H51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
       <c r="K51" t="s">
-        <v>363</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -3900,25 +3819,25 @@
         <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>392</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L52">
-        <v>4</v>
-      </c>
-      <c r="M52" t="s">
-        <v>393</v>
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>8</v>
       </c>
       <c r="N52" t="s">
-        <v>392</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3943,27 +3862,19 @@
       <c r="G53" t="s">
         <v>69</v>
       </c>
-      <c r="H53" t="s">
-        <v>392</v>
-      </c>
-      <c r="I53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J53">
-        <v>4</v>
-      </c>
+      <c r="H53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" t="s">
-        <v>35</v>
-      </c>
-      <c r="L53">
-        <v>4</v>
-      </c>
-      <c r="M53" t="s">
-        <v>394</v>
-      </c>
-      <c r="N53" t="s">
-        <v>392</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -3980,25 +3891,25 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>395</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>371</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>5</v>
-      </c>
-      <c r="M54" t="s">
-        <v>396</v>
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>61</v>
       </c>
       <c r="N54" t="s">
-        <v>395</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4024,25 +3935,25 @@
         <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>395</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
         <v>5</v>
       </c>
-      <c r="K55" t="s">
-        <v>372</v>
-      </c>
       <c r="L55">
-        <v>5</v>
-      </c>
-      <c r="M55" t="s">
-        <v>397</v>
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>62</v>
       </c>
       <c r="N55" t="s">
-        <v>395</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4068,15 +3979,15 @@
         <v>73</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -4096,25 +4007,25 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I57" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N57" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4140,25 +4051,25 @@
         <v>75</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N58" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4184,15 +4095,15 @@
         <v>75</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -4212,25 +4123,25 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="N60" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4256,25 +4167,25 @@
         <v>77</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="N61" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4300,15 +4211,15 @@
         <v>77</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -4336,25 +4247,25 @@
         <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
-      <c r="M63">
-        <v>5</v>
+      <c r="M63" t="s">
+        <v>395</v>
       </c>
       <c r="N63" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4380,25 +4291,25 @@
         <v>77</v>
       </c>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
-      <c r="M64">
-        <v>6</v>
+      <c r="M64" t="s">
+        <v>396</v>
       </c>
       <c r="N64" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4416,15 +4327,15 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -4452,25 +4363,25 @@
         <v>79</v>
       </c>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I66" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>2</v>
-      </c>
-      <c r="M66">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>398</v>
       </c>
       <c r="N66" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4496,25 +4407,25 @@
         <v>79</v>
       </c>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I67" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>399</v>
       </c>
       <c r="N67" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4532,15 +4443,15 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4568,25 +4479,25 @@
         <v>81</v>
       </c>
       <c r="H69" t="s">
-        <v>88</v>
-      </c>
-      <c r="I69" t="s">
-        <v>90</v>
+        <v>104</v>
+      </c>
+      <c r="I69">
+        <v>11</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K69" t="s">
-        <v>3</v>
+        <v>374</v>
       </c>
       <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="M69" t="s">
+        <v>401</v>
       </c>
       <c r="N69" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4612,25 +4523,25 @@
         <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>88</v>
-      </c>
-      <c r="I70" t="s">
-        <v>91</v>
+        <v>104</v>
+      </c>
+      <c r="I70">
+        <v>12</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K70" t="s">
-        <v>5</v>
+        <v>376</v>
       </c>
       <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="M70" t="s">
+        <v>402</v>
       </c>
       <c r="N70" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4648,15 +4559,15 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -4684,25 +4595,25 @@
         <v>83</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
-      </c>
-      <c r="I72" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="I72">
+        <v>13</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K72" t="s">
-        <v>3</v>
+        <v>403</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N72" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -4728,25 +4639,25 @@
         <v>83</v>
       </c>
       <c r="H73" t="s">
-        <v>92</v>
-      </c>
-      <c r="I73" t="s">
-        <v>91</v>
+        <v>107</v>
+      </c>
+      <c r="I73">
+        <v>14</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K73" t="s">
-        <v>5</v>
+        <v>405</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M73" t="s">
         <v>406</v>
       </c>
       <c r="N73" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4764,15 +4675,15 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -4800,25 +4711,25 @@
         <v>86</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
-      </c>
-      <c r="I75" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+      <c r="I75">
+        <v>7</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K75" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N75" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4844,25 +4755,25 @@
         <v>86</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-      <c r="I76" t="s">
-        <v>91</v>
+        <v>109</v>
+      </c>
+      <c r="I76">
+        <v>8</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K76" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N76" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4880,15 +4791,15 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -4916,25 +4827,25 @@
         <v>88</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-      <c r="I78" t="s">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="I78">
+        <v>9</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K78" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M78" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N78" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4960,25 +4871,25 @@
         <v>88</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I79" t="s">
-        <v>91</v>
+        <v>111</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K79" t="s">
+        <v>411</v>
+      </c>
+      <c r="L79">
         <v>5</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
       </c>
       <c r="M79" t="s">
         <v>412</v>
       </c>
       <c r="N79" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4996,7 +4907,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -5032,25 +4943,25 @@
         <v>92</v>
       </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-      <c r="I81" t="s">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K81" t="s">
+        <v>359</v>
+      </c>
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
       <c r="M81" t="s">
-        <v>414</v>
+        <v>231</v>
       </c>
       <c r="N81" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -5076,25 +4987,25 @@
         <v>92</v>
       </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-      <c r="I82" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K82" t="s">
-        <v>5</v>
+        <v>361</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M82" t="s">
-        <v>415</v>
+        <v>232</v>
       </c>
       <c r="N82" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -5112,15 +5023,15 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -5148,25 +5059,25 @@
         <v>94</v>
       </c>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I84">
         <v>11</v>
       </c>
       <c r="J84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>384</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>417</v>
+        <v>327</v>
       </c>
       <c r="N84" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5192,25 +5103,25 @@
         <v>94</v>
       </c>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I85">
         <v>12</v>
       </c>
       <c r="J85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>386</v>
+        <v>5</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>418</v>
+        <v>328</v>
       </c>
       <c r="N85" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5228,15 +5139,15 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -5264,25 +5175,25 @@
         <v>96</v>
       </c>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I87">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>419</v>
+        <v>54</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N87" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5308,25 +5219,25 @@
         <v>96</v>
       </c>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I88">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="L88">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="N88" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5344,15 +5255,15 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -5380,25 +5291,25 @@
         <v>98</v>
       </c>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I90">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K90" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M90" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N90" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5424,25 +5335,25 @@
         <v>98</v>
       </c>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K91" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M91" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="N91" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5460,15 +5371,15 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -5496,25 +5407,25 @@
         <v>100</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I93">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>371</v>
+        <v>54</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>425</v>
+        <v>236</v>
       </c>
       <c r="N93" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5540,25 +5451,25 @@
         <v>100</v>
       </c>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I94">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>372</v>
+        <v>56</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>426</v>
+        <v>237</v>
       </c>
       <c r="N94" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5576,15 +5487,15 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -5612,25 +5523,25 @@
         <v>104</v>
       </c>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>359</v>
+        <v>54</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>231</v>
+        <v>420</v>
       </c>
       <c r="N96" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5656,25 +5567,25 @@
         <v>104</v>
       </c>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>361</v>
+        <v>56</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>232</v>
+        <v>421</v>
       </c>
       <c r="N97" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -5697,10 +5608,10 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -5728,25 +5639,25 @@
         <v>107</v>
       </c>
       <c r="H99" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I99">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="N99" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5772,25 +5683,25 @@
         <v>107</v>
       </c>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I100">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="N100" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5808,15 +5719,15 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -5844,25 +5755,25 @@
         <v>109</v>
       </c>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K102" t="s">
-        <v>54</v>
+        <v>359</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M102" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="N102" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5888,25 +5799,25 @@
         <v>109</v>
       </c>
       <c r="H103" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K103" t="s">
-        <v>56</v>
+        <v>361</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M103" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="N103" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5924,15 +5835,15 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -5960,7 +5871,7 @@
         <v>111</v>
       </c>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -5975,10 +5886,10 @@
         <v>2</v>
       </c>
       <c r="M105" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="N105" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -6004,7 +5915,7 @@
         <v>111</v>
       </c>
       <c r="H106" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I106">
         <v>4</v>
@@ -6019,10 +5930,10 @@
         <v>2</v>
       </c>
       <c r="M106" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="N106" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -6040,15 +5951,15 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -6076,7 +5987,7 @@
         <v>113</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -6085,16 +5996,16 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="L108">
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>236</v>
+        <v>427</v>
       </c>
       <c r="N108" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -6120,7 +6031,7 @@
         <v>113</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -6129,16 +6040,16 @@
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L109">
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>237</v>
+        <v>427</v>
       </c>
       <c r="N109" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -6155,19 +6066,27 @@
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="H110" t="s">
+        <v>197</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
       <c r="K110" t="s">
-        <v>416</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
+        <v>340</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
+        <v>427</v>
+      </c>
+      <c r="N110" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -6191,27 +6110,19 @@
       <c r="G111" t="s">
         <v>116</v>
       </c>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-      <c r="J111">
-        <v>1</v>
-      </c>
+      <c r="H111" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
       <c r="K111" t="s">
-        <v>54</v>
-      </c>
-      <c r="L111">
-        <v>1</v>
-      </c>
-      <c r="M111" t="s">
-        <v>434</v>
-      </c>
-      <c r="N111" t="s">
-        <v>127</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -6236,25 +6147,25 @@
         <v>116</v>
       </c>
       <c r="H112" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
         <v>2</v>
       </c>
-      <c r="J112">
-        <v>1</v>
-      </c>
       <c r="K112" t="s">
-        <v>56</v>
+        <v>428</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="N112" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -6271,19 +6182,27 @@
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="H113" t="s">
+        <v>200</v>
+      </c>
+      <c r="I113">
+        <v>5</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
       <c r="K113" t="s">
+        <v>58</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113" t="s">
         <v>427</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="N113" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -6308,25 +6227,25 @@
         <v>120</v>
       </c>
       <c r="H114" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J114">
         <v>2</v>
       </c>
       <c r="K114" t="s">
-        <v>58</v>
+        <v>429</v>
       </c>
       <c r="L114">
         <v>2</v>
       </c>
       <c r="M114" t="s">
-        <v>241</v>
+        <v>427</v>
       </c>
       <c r="N114" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -6351,27 +6270,19 @@
       <c r="G115" t="s">
         <v>120</v>
       </c>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-      <c r="I115">
-        <v>4</v>
-      </c>
-      <c r="J115">
-        <v>2</v>
-      </c>
+      <c r="H115" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="K115" t="s">
-        <v>60</v>
-      </c>
-      <c r="L115">
-        <v>2</v>
-      </c>
-      <c r="M115" t="s">
-        <v>242</v>
-      </c>
-      <c r="N115" t="s">
-        <v>129</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -6387,19 +6298,27 @@
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="H116" t="s">
+        <v>202</v>
+      </c>
+      <c r="I116">
+        <v>7</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
       <c r="K116" t="s">
-        <v>416</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
+        <v>430</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116" t="s">
+        <v>427</v>
+      </c>
+      <c r="N116" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -6424,10 +6343,10 @@
         <v>123</v>
       </c>
       <c r="H117" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J117">
         <v>3</v>
@@ -6439,10 +6358,10 @@
         <v>3</v>
       </c>
       <c r="M117" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="N117" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6468,25 +6387,25 @@
         <v>123</v>
       </c>
       <c r="H118" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="I118">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J118">
         <v>3</v>
       </c>
       <c r="K118" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="N118" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6504,15 +6423,15 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -6540,25 +6459,25 @@
         <v>125</v>
       </c>
       <c r="H120" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K120" t="s">
-        <v>58</v>
+        <v>432</v>
       </c>
       <c r="L120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M120" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="N120" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6584,25 +6503,25 @@
         <v>125</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="I121">
+        <v>11</v>
+      </c>
+      <c r="J121">
         <v>4</v>
       </c>
-      <c r="J121">
-        <v>2</v>
-      </c>
       <c r="K121" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M121" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="N121" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6619,19 +6538,27 @@
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="H122" t="s">
+        <v>204</v>
+      </c>
+      <c r="I122">
+        <v>12</v>
+      </c>
+      <c r="J122">
+        <v>4</v>
+      </c>
       <c r="K122" t="s">
-        <v>440</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
+        <v>433</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122" t="s">
+        <v>427</v>
+      </c>
+      <c r="N122" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -6655,27 +6582,19 @@
       <c r="G123" t="s">
         <v>127</v>
       </c>
-      <c r="H123" t="s">
-        <v>197</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123">
-        <v>1</v>
-      </c>
+      <c r="H123" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
       <c r="K123" t="s">
-        <v>339</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="M123" t="s">
-        <v>441</v>
-      </c>
-      <c r="N123" t="s">
-        <v>197</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -6700,25 +6619,25 @@
         <v>127</v>
       </c>
       <c r="H124" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K124" t="s">
-        <v>54</v>
+        <v>434</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M124" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N124" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6736,25 +6655,25 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K125" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M125" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N125" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6779,19 +6698,27 @@
       <c r="G126" t="s">
         <v>129</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="H126" t="s">
+        <v>206</v>
+      </c>
+      <c r="I126">
+        <v>15</v>
+      </c>
+      <c r="J126">
+        <v>5</v>
+      </c>
       <c r="K126" t="s">
-        <v>440</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
+        <v>435</v>
+      </c>
+      <c r="L126">
+        <v>5</v>
+      </c>
+      <c r="M126" t="s">
+        <v>427</v>
+      </c>
+      <c r="N126" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -6815,27 +6742,19 @@
       <c r="G127" t="s">
         <v>129</v>
       </c>
-      <c r="H127" t="s">
-        <v>200</v>
-      </c>
-      <c r="I127">
-        <v>4</v>
-      </c>
-      <c r="J127">
-        <v>2</v>
-      </c>
+      <c r="H127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
       <c r="K127" t="s">
-        <v>442</v>
-      </c>
-      <c r="L127">
-        <v>2</v>
-      </c>
-      <c r="M127" t="s">
-        <v>441</v>
-      </c>
-      <c r="N127" t="s">
-        <v>200</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -6852,25 +6771,25 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K128" t="s">
-        <v>58</v>
+        <v>436</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M128" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N128" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6896,25 +6815,25 @@
         <v>131</v>
       </c>
       <c r="H129" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K129" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M129" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N129" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6939,19 +6858,27 @@
       <c r="G130" t="s">
         <v>131</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="H130" t="s">
+        <v>208</v>
+      </c>
+      <c r="I130">
+        <v>21</v>
+      </c>
+      <c r="J130">
+        <v>7</v>
+      </c>
       <c r="K130" t="s">
-        <v>440</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
+        <v>437</v>
+      </c>
+      <c r="L130">
+        <v>7</v>
+      </c>
+      <c r="M130" t="s">
+        <v>427</v>
+      </c>
+      <c r="N130" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -6967,27 +6894,19 @@
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" t="s">
-        <v>202</v>
-      </c>
-      <c r="I131">
-        <v>7</v>
-      </c>
-      <c r="J131">
-        <v>3</v>
-      </c>
+      <c r="H131" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
       <c r="K131" t="s">
-        <v>444</v>
-      </c>
-      <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131" t="s">
-        <v>441</v>
-      </c>
-      <c r="N131" t="s">
-        <v>202</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -7012,25 +6931,25 @@
         <v>133</v>
       </c>
       <c r="H132" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I132">
+        <v>22</v>
+      </c>
+      <c r="J132">
         <v>8</v>
       </c>
-      <c r="J132">
-        <v>3</v>
-      </c>
       <c r="K132" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M132" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N132" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -7056,25 +6975,25 @@
         <v>133</v>
       </c>
       <c r="H133" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I133">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J133">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K133" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M133" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N133" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -7091,19 +7010,27 @@
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="H134" t="s">
+        <v>210</v>
+      </c>
+      <c r="I134">
+        <v>24</v>
+      </c>
+      <c r="J134">
+        <v>8</v>
+      </c>
       <c r="K134" t="s">
         <v>440</v>
       </c>
-      <c r="L134" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
+      <c r="L134">
+        <v>8</v>
+      </c>
+      <c r="M134" t="s">
+        <v>427</v>
+      </c>
+      <c r="N134" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -7127,27 +7054,19 @@
       <c r="G135" t="s">
         <v>135</v>
       </c>
-      <c r="H135" t="s">
-        <v>204</v>
-      </c>
-      <c r="I135">
-        <v>10</v>
-      </c>
-      <c r="J135">
-        <v>4</v>
-      </c>
+      <c r="H135" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
       <c r="K135" t="s">
-        <v>446</v>
-      </c>
-      <c r="L135">
-        <v>4</v>
-      </c>
-      <c r="M135" t="s">
         <v>441</v>
       </c>
-      <c r="N135" t="s">
-        <v>204</v>
-      </c>
+      <c r="L135" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -7172,25 +7091,25 @@
         <v>135</v>
       </c>
       <c r="H136" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I136">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N136" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -7216,25 +7135,25 @@
         <v>135</v>
       </c>
       <c r="H137" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I137">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>447</v>
+        <v>54</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N137" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -7251,19 +7170,27 @@
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="H138" t="s">
+        <v>212</v>
+      </c>
+      <c r="I138">
+        <v>33</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
       <c r="K138" t="s">
-        <v>440</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
+        <v>340</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138" t="s">
+        <v>427</v>
+      </c>
+      <c r="N138" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -7287,27 +7214,19 @@
       <c r="G139" t="s">
         <v>142</v>
       </c>
-      <c r="H139" t="s">
-        <v>206</v>
-      </c>
-      <c r="I139">
-        <v>13</v>
-      </c>
-      <c r="J139">
-        <v>5</v>
-      </c>
+      <c r="H139" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
       <c r="K139" t="s">
-        <v>448</v>
-      </c>
-      <c r="L139">
-        <v>5</v>
-      </c>
-      <c r="M139" t="s">
         <v>441</v>
       </c>
-      <c r="N139" t="s">
-        <v>206</v>
-      </c>
+      <c r="L139" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -7332,25 +7251,25 @@
         <v>142</v>
       </c>
       <c r="H140" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="I140">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M140" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N140" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -7376,25 +7295,25 @@
         <v>142</v>
       </c>
       <c r="H141" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="I141">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K141" t="s">
-        <v>449</v>
+        <v>58</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M141" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N141" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -7411,19 +7330,27 @@
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="H142" t="s">
+        <v>269</v>
+      </c>
+      <c r="I142">
+        <v>36</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
       <c r="K142" t="s">
-        <v>440</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
+        <v>429</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142" t="s">
+        <v>427</v>
+      </c>
+      <c r="N142" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -7447,27 +7374,19 @@
       <c r="G143" t="s">
         <v>147</v>
       </c>
-      <c r="H143" t="s">
-        <v>208</v>
-      </c>
-      <c r="I143">
-        <v>19</v>
-      </c>
-      <c r="J143">
-        <v>7</v>
-      </c>
+      <c r="H143" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
       <c r="K143" t="s">
-        <v>450</v>
-      </c>
-      <c r="L143">
-        <v>7</v>
-      </c>
-      <c r="M143" t="s">
         <v>441</v>
       </c>
-      <c r="N143" t="s">
-        <v>208</v>
-      </c>
+      <c r="L143" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -7492,25 +7411,25 @@
         <v>147</v>
       </c>
       <c r="H144" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="I144">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J144">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K144" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L144">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M144" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N144" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -7536,25 +7455,25 @@
         <v>147</v>
       </c>
       <c r="H145" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="I145">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K145" t="s">
-        <v>451</v>
+        <v>359</v>
       </c>
       <c r="L145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M145" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N145" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -7571,19 +7490,27 @@
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="H146" t="s">
+        <v>271</v>
+      </c>
+      <c r="I146">
+        <v>39</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
       <c r="K146" t="s">
-        <v>440</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
+        <v>431</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146" t="s">
+        <v>427</v>
+      </c>
+      <c r="N146" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -7607,27 +7534,19 @@
       <c r="G147" t="s">
         <v>152</v>
       </c>
-      <c r="H147" t="s">
-        <v>210</v>
-      </c>
-      <c r="I147">
-        <v>22</v>
-      </c>
-      <c r="J147">
-        <v>8</v>
-      </c>
+      <c r="H147" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
       <c r="K147" t="s">
-        <v>452</v>
-      </c>
-      <c r="L147">
-        <v>8</v>
-      </c>
-      <c r="M147" t="s">
         <v>441</v>
       </c>
-      <c r="N147" t="s">
-        <v>210</v>
-      </c>
+      <c r="L147" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -7652,25 +7571,25 @@
         <v>152</v>
       </c>
       <c r="H148" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="I148">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J148">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K148" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="L148">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M148" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N148" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -7696,25 +7615,25 @@
         <v>152</v>
       </c>
       <c r="H149" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="I149">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J149">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K149" t="s">
-        <v>454</v>
+        <v>32</v>
       </c>
       <c r="L149">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N149" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -7731,19 +7650,27 @@
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="H150" t="s">
+        <v>273</v>
+      </c>
+      <c r="I150">
+        <v>42</v>
+      </c>
+      <c r="J150">
+        <v>4</v>
+      </c>
       <c r="K150" t="s">
-        <v>455</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
+        <v>433</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150" t="s">
+        <v>427</v>
+      </c>
+      <c r="N150" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -7767,27 +7694,19 @@
       <c r="G151" t="s">
         <v>157</v>
       </c>
-      <c r="H151" t="s">
-        <v>212</v>
-      </c>
-      <c r="I151">
-        <v>31</v>
-      </c>
-      <c r="J151">
-        <v>1</v>
-      </c>
+      <c r="H151" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
       <c r="K151" t="s">
-        <v>339</v>
-      </c>
-      <c r="L151">
-        <v>1</v>
-      </c>
-      <c r="M151" t="s">
         <v>441</v>
       </c>
-      <c r="N151" t="s">
-        <v>212</v>
-      </c>
+      <c r="L151" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -7812,25 +7731,25 @@
         <v>157</v>
       </c>
       <c r="H152" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="I152">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K152" t="s">
-        <v>54</v>
+        <v>434</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M152" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N152" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -7856,25 +7775,25 @@
         <v>157</v>
       </c>
       <c r="H153" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="I153">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K153" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="L153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M153" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N153" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -7891,19 +7810,27 @@
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
+      <c r="H154" t="s">
+        <v>275</v>
+      </c>
+      <c r="I154">
+        <v>45</v>
+      </c>
+      <c r="J154">
+        <v>5</v>
+      </c>
       <c r="K154" t="s">
-        <v>455</v>
-      </c>
-      <c r="L154" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
+        <v>435</v>
+      </c>
+      <c r="L154">
+        <v>5</v>
+      </c>
+      <c r="M154" t="s">
+        <v>427</v>
+      </c>
+      <c r="N154" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -7927,27 +7854,19 @@
       <c r="G155" t="s">
         <v>162</v>
       </c>
-      <c r="H155" t="s">
-        <v>269</v>
-      </c>
-      <c r="I155">
-        <v>34</v>
-      </c>
-      <c r="J155">
-        <v>2</v>
-      </c>
+      <c r="H155" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
       <c r="K155" t="s">
-        <v>442</v>
-      </c>
-      <c r="L155">
-        <v>2</v>
-      </c>
-      <c r="M155" t="s">
         <v>441</v>
       </c>
-      <c r="N155" t="s">
-        <v>269</v>
-      </c>
+      <c r="L155" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -7972,25 +7891,25 @@
         <v>162</v>
       </c>
       <c r="H156" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="I156">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J156">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K156" t="s">
-        <v>58</v>
+        <v>442</v>
       </c>
       <c r="L156">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M156" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N156" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -8016,25 +7935,25 @@
         <v>162</v>
       </c>
       <c r="H157" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="I157">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K157" t="s">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="L157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M157" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N157" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -8051,19 +7970,27 @@
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
+      <c r="H158" t="s">
+        <v>277</v>
+      </c>
+      <c r="I158">
+        <v>48</v>
+      </c>
+      <c r="J158">
+        <v>6</v>
+      </c>
       <c r="K158" t="s">
-        <v>455</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
+        <v>443</v>
+      </c>
+      <c r="L158">
+        <v>6</v>
+      </c>
+      <c r="M158" t="s">
+        <v>427</v>
+      </c>
+      <c r="N158" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -8087,27 +8014,19 @@
       <c r="G159" t="s">
         <v>167</v>
       </c>
-      <c r="H159" t="s">
-        <v>271</v>
-      </c>
-      <c r="I159">
-        <v>37</v>
-      </c>
-      <c r="J159">
-        <v>3</v>
-      </c>
+      <c r="H159" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
       <c r="K159" t="s">
-        <v>444</v>
-      </c>
-      <c r="L159">
-        <v>3</v>
-      </c>
-      <c r="M159" t="s">
         <v>441</v>
       </c>
-      <c r="N159" t="s">
-        <v>271</v>
-      </c>
+      <c r="L159" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -8132,25 +8051,25 @@
         <v>167</v>
       </c>
       <c r="H160" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="I160">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J160">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K160" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M160" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N160" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -8176,25 +8095,25 @@
         <v>167</v>
       </c>
       <c r="H161" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="I161">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J161">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K161" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M161" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N161" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -8211,19 +8130,27 @@
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="H162" t="s">
+        <v>279</v>
+      </c>
+      <c r="I162">
+        <v>54</v>
+      </c>
+      <c r="J162">
+        <v>8</v>
+      </c>
       <c r="K162" t="s">
-        <v>455</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
+        <v>440</v>
+      </c>
+      <c r="L162">
+        <v>8</v>
+      </c>
+      <c r="M162" t="s">
+        <v>427</v>
+      </c>
+      <c r="N162" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -8247,27 +8174,19 @@
       <c r="G163" t="s">
         <v>172</v>
       </c>
-      <c r="H163" t="s">
-        <v>273</v>
-      </c>
-      <c r="I163">
-        <v>40</v>
-      </c>
-      <c r="J163">
-        <v>4</v>
-      </c>
+      <c r="H163" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
       <c r="K163" t="s">
-        <v>446</v>
-      </c>
-      <c r="L163">
-        <v>4</v>
-      </c>
-      <c r="M163" t="s">
-        <v>441</v>
-      </c>
-      <c r="N163" t="s">
-        <v>273</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -8292,25 +8211,25 @@
         <v>172</v>
       </c>
       <c r="H164" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I164">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M164" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N164" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -8336,25 +8255,25 @@
         <v>172</v>
       </c>
       <c r="H165" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I165">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>447</v>
+        <v>54</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N165" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -8371,19 +8290,27 @@
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
+      <c r="H166" t="s">
+        <v>281</v>
+      </c>
+      <c r="I166">
+        <v>63</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
       <c r="K166" t="s">
-        <v>455</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
+        <v>340</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
+        <v>427</v>
+      </c>
+      <c r="N166" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -8407,27 +8334,19 @@
       <c r="G167" t="s">
         <v>177</v>
       </c>
-      <c r="H167" t="s">
-        <v>275</v>
-      </c>
-      <c r="I167">
-        <v>43</v>
-      </c>
-      <c r="J167">
-        <v>5</v>
-      </c>
+      <c r="H167" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
       <c r="K167" t="s">
-        <v>448</v>
-      </c>
-      <c r="L167">
-        <v>5</v>
-      </c>
-      <c r="M167" t="s">
-        <v>441</v>
-      </c>
-      <c r="N167" t="s">
-        <v>275</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -8452,25 +8371,25 @@
         <v>177</v>
       </c>
       <c r="H168" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I168">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K168" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M168" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N168" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -8496,25 +8415,25 @@
         <v>177</v>
       </c>
       <c r="H169" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I169">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="J169">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K169" t="s">
-        <v>449</v>
+        <v>58</v>
       </c>
       <c r="L169">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M169" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N169" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -8531,19 +8450,27 @@
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
+      <c r="H170" t="s">
+        <v>283</v>
+      </c>
+      <c r="I170">
+        <v>66</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
       <c r="K170" t="s">
-        <v>455</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
+        <v>429</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170" t="s">
+        <v>427</v>
+      </c>
+      <c r="N170" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -8567,27 +8494,19 @@
       <c r="G171" t="s">
         <v>182</v>
       </c>
-      <c r="H171" t="s">
-        <v>277</v>
-      </c>
-      <c r="I171">
-        <v>46</v>
-      </c>
-      <c r="J171">
-        <v>6</v>
-      </c>
+      <c r="H171" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
       <c r="K171" t="s">
-        <v>456</v>
-      </c>
-      <c r="L171">
-        <v>6</v>
-      </c>
-      <c r="M171" t="s">
-        <v>441</v>
-      </c>
-      <c r="N171" t="s">
-        <v>277</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -8612,25 +8531,25 @@
         <v>182</v>
       </c>
       <c r="H172" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="I172">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="J172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K172" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="L172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M172" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N172" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -8656,25 +8575,25 @@
         <v>182</v>
       </c>
       <c r="H173" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="I173">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K173" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="L173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M173" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N173" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -8691,19 +8610,27 @@
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
+      <c r="H174" t="s">
+        <v>285</v>
+      </c>
+      <c r="I174">
+        <v>69</v>
+      </c>
+      <c r="J174">
+        <v>3</v>
+      </c>
       <c r="K174" t="s">
-        <v>455</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
+        <v>431</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="M174" t="s">
+        <v>427</v>
+      </c>
+      <c r="N174" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -8727,27 +8654,19 @@
       <c r="G175" t="s">
         <v>187</v>
       </c>
-      <c r="H175" t="s">
-        <v>279</v>
-      </c>
-      <c r="I175">
-        <v>52</v>
-      </c>
-      <c r="J175">
-        <v>8</v>
-      </c>
+      <c r="H175" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
       <c r="K175" t="s">
-        <v>452</v>
-      </c>
-      <c r="L175">
-        <v>8</v>
-      </c>
-      <c r="M175" t="s">
-        <v>441</v>
-      </c>
-      <c r="N175" t="s">
-        <v>279</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -8772,25 +8691,25 @@
         <v>187</v>
       </c>
       <c r="H176" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I176">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J176">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K176" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="L176">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M176" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N176" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -8816,25 +8735,25 @@
         <v>187</v>
       </c>
       <c r="H177" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I177">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="J177">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K177" t="s">
-        <v>454</v>
+        <v>32</v>
       </c>
       <c r="L177">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M177" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N177" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -8851,19 +8770,27 @@
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="H178" t="s">
+        <v>287</v>
+      </c>
+      <c r="I178">
+        <v>72</v>
+      </c>
+      <c r="J178">
+        <v>4</v>
+      </c>
       <c r="K178" t="s">
-        <v>458</v>
-      </c>
-      <c r="L178" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
+        <v>433</v>
+      </c>
+      <c r="L178">
+        <v>4</v>
+      </c>
+      <c r="M178" t="s">
+        <v>427</v>
+      </c>
+      <c r="N178" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -8887,27 +8814,19 @@
       <c r="G179" t="s">
         <v>192</v>
       </c>
-      <c r="H179" t="s">
-        <v>281</v>
-      </c>
-      <c r="I179">
-        <v>61</v>
-      </c>
-      <c r="J179">
-        <v>1</v>
-      </c>
+      <c r="H179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
       <c r="K179" t="s">
-        <v>339</v>
-      </c>
-      <c r="L179">
-        <v>1</v>
-      </c>
-      <c r="M179" t="s">
-        <v>441</v>
-      </c>
-      <c r="N179" t="s">
-        <v>281</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -8932,10 +8851,10 @@
         <v>192</v>
       </c>
       <c r="H180" t="s">
-        <v>281</v>
-      </c>
-      <c r="I180">
-        <v>62</v>
+        <v>289</v>
+      </c>
+      <c r="I180" t="s">
+        <v>10</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -8947,10 +8866,10 @@
         <v>1</v>
       </c>
       <c r="M180" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="N180" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -8976,25 +8895,25 @@
         <v>192</v>
       </c>
       <c r="H181" t="s">
-        <v>281</v>
-      </c>
-      <c r="I181">
-        <v>63</v>
+        <v>289</v>
+      </c>
+      <c r="I181" t="s">
+        <v>11</v>
       </c>
       <c r="J181">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>340</v>
+        <v>56</v>
       </c>
       <c r="L181">
         <v>1</v>
       </c>
       <c r="M181" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="N181" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -9012,15 +8931,15 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -9048,25 +8967,25 @@
         <v>197</v>
       </c>
       <c r="H183" t="s">
-        <v>283</v>
-      </c>
-      <c r="I183">
-        <v>64</v>
+        <v>299</v>
+      </c>
+      <c r="I183" t="s">
+        <v>4</v>
       </c>
       <c r="J183">
         <v>2</v>
       </c>
       <c r="K183" t="s">
-        <v>442</v>
+        <v>58</v>
       </c>
       <c r="L183">
         <v>2</v>
       </c>
-      <c r="M183" t="s">
-        <v>441</v>
+      <c r="M183">
+        <v>43</v>
       </c>
       <c r="N183" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -9092,25 +9011,25 @@
         <v>197</v>
       </c>
       <c r="H184" t="s">
-        <v>283</v>
-      </c>
-      <c r="I184">
-        <v>65</v>
+        <v>299</v>
+      </c>
+      <c r="I184" t="s">
+        <v>6</v>
       </c>
       <c r="J184">
         <v>2</v>
       </c>
       <c r="K184" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L184">
         <v>2</v>
       </c>
-      <c r="M184" t="s">
-        <v>441</v>
+      <c r="M184">
+        <v>44</v>
       </c>
       <c r="N184" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -9135,27 +9054,19 @@
       <c r="G185" t="s">
         <v>197</v>
       </c>
-      <c r="H185" t="s">
-        <v>283</v>
-      </c>
-      <c r="I185">
-        <v>66</v>
-      </c>
-      <c r="J185">
-        <v>2</v>
-      </c>
+      <c r="H185" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
       <c r="K185" t="s">
-        <v>443</v>
-      </c>
-      <c r="L185">
-        <v>2</v>
-      </c>
-      <c r="M185" t="s">
-        <v>441</v>
-      </c>
-      <c r="N185" t="s">
-        <v>283</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -9171,19 +9082,27 @@
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
+      <c r="H186" t="s">
+        <v>301</v>
+      </c>
+      <c r="I186" t="s">
+        <v>10</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
       <c r="K186" t="s">
-        <v>458</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186" t="s">
+        <v>447</v>
+      </c>
+      <c r="N186" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -9208,25 +9127,25 @@
         <v>200</v>
       </c>
       <c r="H187" t="s">
-        <v>285</v>
-      </c>
-      <c r="I187">
-        <v>67</v>
+        <v>301</v>
+      </c>
+      <c r="I187" t="s">
+        <v>11</v>
       </c>
       <c r="J187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M187" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="N187" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -9251,27 +9170,19 @@
       <c r="G188" t="s">
         <v>200</v>
       </c>
-      <c r="H188" t="s">
-        <v>285</v>
-      </c>
-      <c r="I188">
-        <v>68</v>
-      </c>
-      <c r="J188">
-        <v>3</v>
-      </c>
+      <c r="H188" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
       <c r="K188" t="s">
-        <v>359</v>
-      </c>
-      <c r="L188">
-        <v>3</v>
-      </c>
-      <c r="M188" t="s">
-        <v>441</v>
-      </c>
-      <c r="N188" t="s">
-        <v>285</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -9296,25 +9207,25 @@
         <v>200</v>
       </c>
       <c r="H189" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="I189">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J189">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K189" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L189">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M189" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="N189" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -9331,19 +9242,27 @@
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
+      <c r="H190" t="s">
+        <v>308</v>
+      </c>
+      <c r="I190">
+        <v>16</v>
+      </c>
+      <c r="J190">
+        <v>8</v>
+      </c>
       <c r="K190" t="s">
-        <v>458</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="L190">
+        <v>8</v>
+      </c>
+      <c r="M190" t="s">
+        <v>451</v>
+      </c>
+      <c r="N190" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -9367,27 +9286,19 @@
       <c r="G191" t="s">
         <v>202</v>
       </c>
-      <c r="H191" t="s">
-        <v>287</v>
-      </c>
-      <c r="I191">
-        <v>70</v>
-      </c>
-      <c r="J191">
-        <v>4</v>
-      </c>
+      <c r="H191" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
       <c r="K191" t="s">
-        <v>446</v>
-      </c>
-      <c r="L191">
-        <v>4</v>
-      </c>
-      <c r="M191" t="s">
-        <v>441</v>
-      </c>
-      <c r="N191" t="s">
-        <v>287</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -9412,25 +9323,25 @@
         <v>202</v>
       </c>
       <c r="H192" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="I192">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="J192">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K192" t="s">
-        <v>32</v>
+        <v>442</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M192" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N192" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -9456,25 +9367,25 @@
         <v>202</v>
       </c>
       <c r="H193" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="I193">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="J193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K193" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M193" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N193" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -9491,19 +9402,27 @@
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
+      <c r="H194" t="s">
+        <v>318</v>
+      </c>
+      <c r="I194">
+        <v>18</v>
+      </c>
+      <c r="J194">
+        <v>6</v>
+      </c>
       <c r="K194" t="s">
-        <v>349</v>
-      </c>
-      <c r="L194" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
+        <v>443</v>
+      </c>
+      <c r="L194">
+        <v>6</v>
+      </c>
+      <c r="M194" t="s">
+        <v>427</v>
+      </c>
+      <c r="N194" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -9527,27 +9446,19 @@
       <c r="G195" t="s">
         <v>204</v>
       </c>
-      <c r="H195" t="s">
-        <v>289</v>
-      </c>
-      <c r="I195" t="s">
-        <v>10</v>
-      </c>
-      <c r="J195">
-        <v>1</v>
-      </c>
+      <c r="H195" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
       <c r="K195" t="s">
-        <v>54</v>
-      </c>
-      <c r="L195">
-        <v>1</v>
-      </c>
-      <c r="M195" t="s">
-        <v>459</v>
-      </c>
-      <c r="N195" t="s">
-        <v>289</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -9572,25 +9483,25 @@
         <v>204</v>
       </c>
       <c r="H196" t="s">
-        <v>289</v>
-      </c>
-      <c r="I196" t="s">
-        <v>11</v>
+        <v>335</v>
+      </c>
+      <c r="I196">
+        <v>49</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K196" t="s">
-        <v>56</v>
+        <v>436</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M196" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="N196" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -9615,19 +9526,27 @@
       <c r="G197" t="s">
         <v>204</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
+      <c r="H197" t="s">
+        <v>335</v>
+      </c>
+      <c r="I197">
+        <v>50</v>
+      </c>
+      <c r="J197">
+        <v>7</v>
+      </c>
       <c r="K197" t="s">
-        <v>368</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="L197">
+        <v>7</v>
+      </c>
+      <c r="M197" t="s">
+        <v>427</v>
+      </c>
+      <c r="N197" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -9644,25 +9563,25 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" t="s">
-        <v>299</v>
-      </c>
-      <c r="I198" t="s">
-        <v>4</v>
+        <v>335</v>
+      </c>
+      <c r="I198">
+        <v>51</v>
       </c>
       <c r="J198">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K198" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
       <c r="L198">
-        <v>2</v>
-      </c>
-      <c r="M198">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="M198" t="s">
+        <v>427</v>
       </c>
       <c r="N198" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -9687,27 +9606,19 @@
       <c r="G199" t="s">
         <v>206</v>
       </c>
-      <c r="H199" t="s">
-        <v>299</v>
-      </c>
-      <c r="I199" t="s">
-        <v>6</v>
-      </c>
-      <c r="J199">
-        <v>2</v>
-      </c>
+      <c r="H199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
       <c r="K199" t="s">
-        <v>60</v>
-      </c>
-      <c r="L199">
-        <v>2</v>
-      </c>
-      <c r="M199">
-        <v>44</v>
-      </c>
-      <c r="N199" t="s">
-        <v>299</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -9731,19 +9642,27 @@
       <c r="G200" t="s">
         <v>206</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
+      <c r="H200" t="s">
+        <v>337</v>
+      </c>
+      <c r="I200">
+        <v>73</v>
+      </c>
+      <c r="J200">
+        <v>5</v>
+      </c>
       <c r="K200" t="s">
-        <v>363</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="L200">
+        <v>5</v>
+      </c>
+      <c r="M200" t="s">
+        <v>427</v>
+      </c>
+      <c r="N200" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -9768,25 +9687,25 @@
         <v>206</v>
       </c>
       <c r="H201" t="s">
-        <v>301</v>
-      </c>
-      <c r="I201" t="s">
-        <v>10</v>
+        <v>337</v>
+      </c>
+      <c r="I201">
+        <v>74</v>
       </c>
       <c r="J201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K201" t="s">
-        <v>54</v>
+        <v>409</v>
       </c>
       <c r="L201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M201" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="N201" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -9804,25 +9723,25 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" t="s">
-        <v>301</v>
-      </c>
-      <c r="I202" t="s">
-        <v>11</v>
+        <v>337</v>
+      </c>
+      <c r="I202">
+        <v>75</v>
       </c>
       <c r="J202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K202" t="s">
-        <v>56</v>
+        <v>435</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M202" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="N202" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -9848,15 +9767,15 @@
         <v>208</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
@@ -9884,25 +9803,25 @@
         <v>208</v>
       </c>
       <c r="H204" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="I204">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="J204">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K204" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L204">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M204" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="N204" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -9928,25 +9847,25 @@
         <v>208</v>
       </c>
       <c r="H205" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="I205">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="J205">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K205" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="L205">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M205" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="N205" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -9963,19 +9882,27 @@
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
+      <c r="H206" t="s">
+        <v>341</v>
+      </c>
+      <c r="I206">
+        <v>78</v>
+      </c>
+      <c r="J206">
+        <v>6</v>
+      </c>
       <c r="K206" t="s">
-        <v>440</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
+        <v>443</v>
+      </c>
+      <c r="L206">
+        <v>6</v>
+      </c>
+      <c r="M206" t="s">
+        <v>427</v>
+      </c>
+      <c r="N206" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -9999,27 +9926,19 @@
       <c r="G207" t="s">
         <v>210</v>
       </c>
-      <c r="H207" t="s">
-        <v>318</v>
-      </c>
-      <c r="I207">
-        <v>16</v>
-      </c>
-      <c r="J207">
-        <v>6</v>
-      </c>
+      <c r="H207" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
       <c r="K207" t="s">
-        <v>456</v>
-      </c>
-      <c r="L207">
-        <v>6</v>
-      </c>
-      <c r="M207" t="s">
-        <v>441</v>
-      </c>
-      <c r="N207" t="s">
-        <v>318</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -10044,25 +9963,25 @@
         <v>210</v>
       </c>
       <c r="H208" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="I208">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="J208">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K208" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="L208">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M208" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N208" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
@@ -10088,25 +10007,25 @@
         <v>210</v>
       </c>
       <c r="H209" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="I209">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="J209">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K209" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="L209">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M209" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N209" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
@@ -10123,19 +10042,27 @@
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
+      <c r="H210" t="s">
+        <v>343</v>
+      </c>
+      <c r="I210">
+        <v>81</v>
+      </c>
+      <c r="J210">
+        <v>7</v>
+      </c>
       <c r="K210" t="s">
-        <v>455</v>
-      </c>
-      <c r="L210" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
+        <v>437</v>
+      </c>
+      <c r="L210">
+        <v>7</v>
+      </c>
+      <c r="M210" t="s">
+        <v>427</v>
+      </c>
+      <c r="N210" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -10159,27 +10086,19 @@
       <c r="G211" t="s">
         <v>212</v>
       </c>
-      <c r="H211" t="s">
-        <v>335</v>
-      </c>
-      <c r="I211">
-        <v>49</v>
-      </c>
-      <c r="J211">
-        <v>7</v>
-      </c>
+      <c r="H211" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
       <c r="K211" t="s">
-        <v>450</v>
-      </c>
-      <c r="L211">
-        <v>7</v>
-      </c>
-      <c r="M211" t="s">
-        <v>441</v>
-      </c>
-      <c r="N211" t="s">
-        <v>335</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -10204,25 +10123,25 @@
         <v>212</v>
       </c>
       <c r="H212" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="I212">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="J212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K212" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="L212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M212" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="N212" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
@@ -10248,862 +10167,622 @@
         <v>212</v>
       </c>
       <c r="H213" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="I213">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="J213">
+        <v>8</v>
+      </c>
+      <c r="K213" t="s">
+        <v>439</v>
+      </c>
+      <c r="L213">
+        <v>8</v>
+      </c>
+      <c r="M213" t="s">
+        <v>427</v>
+      </c>
+      <c r="N213" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I214" s="4">
+        <v>84</v>
+      </c>
+      <c r="J214" s="4">
+        <v>8</v>
+      </c>
+      <c r="K214" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="L214" s="4">
+        <v>8</v>
+      </c>
+      <c r="M214" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="N214" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="7">
+        <v>2</v>
+      </c>
+      <c r="C215" s="7">
+        <v>1</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" s="7">
+        <v>1</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H215" s="7"/>
+      <c r="I215" s="7"/>
+      <c r="J215" s="7"/>
+      <c r="K215" s="7"/>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7"/>
+      <c r="N215" s="8"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216" s="7">
+        <v>1</v>
+      </c>
+      <c r="C216" s="7">
+        <v>1</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="7">
+        <v>1</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H216" s="7"/>
+      <c r="I216" s="7"/>
+      <c r="J216" s="7"/>
+      <c r="K216" s="7"/>
+      <c r="L216" s="7"/>
+      <c r="M216" s="7"/>
+      <c r="N216" s="8"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217" s="7">
         <v>7</v>
       </c>
-      <c r="K213" t="s">
-        <v>451</v>
-      </c>
-      <c r="L213">
+      <c r="C217" s="7">
+        <v>1</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E217" s="7">
+        <v>1</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
+      <c r="J217" s="7"/>
+      <c r="K217" s="7"/>
+      <c r="L217" s="7"/>
+      <c r="M217" s="7"/>
+      <c r="N217" s="8"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="7"/>
+      <c r="L218" s="7"/>
+      <c r="M218" s="7"/>
+      <c r="N218" s="8"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" s="7">
+        <v>2</v>
+      </c>
+      <c r="C219" s="7">
+        <v>1</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219" s="7">
+        <v>1</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H219" s="7"/>
+      <c r="I219" s="7"/>
+      <c r="J219" s="7"/>
+      <c r="K219" s="7"/>
+      <c r="L219" s="7"/>
+      <c r="M219" s="7"/>
+      <c r="N219" s="8"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="7">
+        <v>1</v>
+      </c>
+      <c r="C220" s="7">
+        <v>1</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="7">
+        <v>1</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H220" s="7"/>
+      <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
+      <c r="K220" s="7"/>
+      <c r="L220" s="7"/>
+      <c r="M220" s="7"/>
+      <c r="N220" s="8"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221" s="7">
         <v>7</v>
       </c>
-      <c r="M213" t="s">
-        <v>441</v>
-      </c>
-      <c r="N213" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" t="s">
-        <v>215</v>
-      </c>
-      <c r="E214" s="1" t="s">
+      <c r="C221" s="7">
+        <v>1</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E221" s="7">
+        <v>1</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="7"/>
+      <c r="L221" s="7"/>
+      <c r="M221" s="7"/>
+      <c r="N221" s="8"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E222" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" t="s">
-        <v>458</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>214</v>
-      </c>
-      <c r="B215">
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="7"/>
+      <c r="J222" s="7"/>
+      <c r="K222" s="7"/>
+      <c r="L222" s="7"/>
+      <c r="M222" s="7"/>
+      <c r="N222" s="8"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" s="7">
         <v>2</v>
       </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="C223" s="7">
+        <v>1</v>
+      </c>
+      <c r="D223" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-      <c r="F215" t="s">
-        <v>216</v>
-      </c>
-      <c r="G215" t="s">
-        <v>214</v>
-      </c>
-      <c r="H215" t="s">
-        <v>337</v>
-      </c>
-      <c r="I215">
-        <v>73</v>
-      </c>
-      <c r="J215">
+      <c r="E223" s="7">
+        <v>1</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H223" s="7"/>
+      <c r="I223" s="7"/>
+      <c r="J223" s="7"/>
+      <c r="K223" s="7"/>
+      <c r="L223" s="7"/>
+      <c r="M223" s="7"/>
+      <c r="N223" s="8"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="7">
+        <v>1</v>
+      </c>
+      <c r="C224" s="7">
+        <v>1</v>
+      </c>
+      <c r="D224" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K215" t="s">
-        <v>448</v>
-      </c>
-      <c r="L215">
+      <c r="E224" s="7">
+        <v>1</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7"/>
+      <c r="J224" s="7"/>
+      <c r="K224" s="7"/>
+      <c r="L224" s="7"/>
+      <c r="M224" s="7"/>
+      <c r="N224" s="8"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="7">
+        <v>7</v>
+      </c>
+      <c r="C225" s="7">
+        <v>1</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E225" s="7">
+        <v>1</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7"/>
+      <c r="J225" s="7"/>
+      <c r="K225" s="7"/>
+      <c r="L225" s="7"/>
+      <c r="M225" s="7"/>
+      <c r="N225" s="8"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7"/>
+      <c r="J226" s="7"/>
+      <c r="K226" s="7"/>
+      <c r="L226" s="7"/>
+      <c r="M226" s="7"/>
+      <c r="N226" s="8"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" s="7">
+        <v>2</v>
+      </c>
+      <c r="C227" s="7">
+        <v>1</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E227" s="7">
+        <v>1</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H227" s="7"/>
+      <c r="I227" s="7"/>
+      <c r="J227" s="7"/>
+      <c r="K227" s="7"/>
+      <c r="L227" s="7"/>
+      <c r="M227" s="7"/>
+      <c r="N227" s="8"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="7">
+        <v>1</v>
+      </c>
+      <c r="C228" s="7">
+        <v>1</v>
+      </c>
+      <c r="D228" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M215" t="s">
-        <v>441</v>
-      </c>
-      <c r="N215" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="E228" s="7">
+        <v>1</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="7"/>
+      <c r="L228" s="7"/>
+      <c r="M228" s="7"/>
+      <c r="N228" s="8"/>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" s="7">
+        <v>7</v>
+      </c>
+      <c r="C229" s="7">
+        <v>1</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E229" s="7">
+        <v>1</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H229" s="7"/>
+      <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
+      <c r="K229" s="7"/>
+      <c r="L229" s="7"/>
+      <c r="M229" s="7"/>
+      <c r="N229" s="8"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
+      <c r="J230" s="7"/>
+      <c r="K230" s="7"/>
+      <c r="L230" s="7"/>
+      <c r="M230" s="7"/>
+      <c r="N230" s="8"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" s="7">
+        <v>2</v>
+      </c>
+      <c r="C231" s="7">
+        <v>1</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" s="7">
+        <v>1</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H231" s="7"/>
+      <c r="I231" s="7"/>
+      <c r="J231" s="7"/>
+      <c r="K231" s="7"/>
+      <c r="L231" s="7"/>
+      <c r="M231" s="7"/>
+      <c r="N231" s="8"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" s="7">
+        <v>1</v>
+      </c>
+      <c r="C232" s="7">
+        <v>1</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216" t="s">
-        <v>217</v>
-      </c>
-      <c r="G216" t="s">
-        <v>214</v>
-      </c>
-      <c r="H216" t="s">
-        <v>337</v>
-      </c>
-      <c r="I216">
-        <v>74</v>
-      </c>
-      <c r="J216">
-        <v>5</v>
-      </c>
-      <c r="K216" t="s">
-        <v>371</v>
-      </c>
-      <c r="L216">
-        <v>5</v>
-      </c>
-      <c r="M216" t="s">
-        <v>441</v>
-      </c>
-      <c r="N216" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>214</v>
-      </c>
-      <c r="B217">
+      <c r="E232" s="7">
+        <v>1</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H232" s="7"/>
+      <c r="I232" s="7"/>
+      <c r="J232" s="7"/>
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="M232" s="7"/>
+      <c r="N232" s="8"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" s="7">
         <v>7</v>
       </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="C233" s="7">
+        <v>1</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E217">
-        <v>1</v>
-      </c>
-      <c r="F217" t="s">
-        <v>218</v>
-      </c>
-      <c r="G217" t="s">
-        <v>214</v>
-      </c>
-      <c r="H217" t="s">
-        <v>337</v>
-      </c>
-      <c r="I217">
-        <v>75</v>
-      </c>
-      <c r="J217">
-        <v>5</v>
-      </c>
-      <c r="K217" t="s">
-        <v>449</v>
-      </c>
-      <c r="L217">
-        <v>5</v>
-      </c>
-      <c r="M217" t="s">
-        <v>441</v>
-      </c>
-      <c r="N217" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" t="s">
-        <v>220</v>
-      </c>
-      <c r="E218" s="1" t="s">
+      <c r="E233" s="7">
+        <v>1</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H233" s="7"/>
+      <c r="I233" s="7"/>
+      <c r="J233" s="7"/>
+      <c r="K233" s="7"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7"/>
+      <c r="N233" s="8"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E234" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" t="s">
-        <v>458</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219">
-        <v>2</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219" t="s">
-        <v>221</v>
-      </c>
-      <c r="G219" t="s">
-        <v>219</v>
-      </c>
-      <c r="H219" t="s">
-        <v>341</v>
-      </c>
-      <c r="I219">
-        <v>76</v>
-      </c>
-      <c r="J219">
-        <v>6</v>
-      </c>
-      <c r="K219" t="s">
-        <v>456</v>
-      </c>
-      <c r="L219">
-        <v>6</v>
-      </c>
-      <c r="M219" t="s">
-        <v>441</v>
-      </c>
-      <c r="N219" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>219</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220" t="s">
-        <v>222</v>
-      </c>
-      <c r="G220" t="s">
-        <v>219</v>
-      </c>
-      <c r="H220" t="s">
-        <v>341</v>
-      </c>
-      <c r="I220">
-        <v>77</v>
-      </c>
-      <c r="J220">
-        <v>6</v>
-      </c>
-      <c r="K220" t="s">
-        <v>384</v>
-      </c>
-      <c r="L220">
-        <v>6</v>
-      </c>
-      <c r="M220" t="s">
-        <v>441</v>
-      </c>
-      <c r="N220" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>7</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221" t="s">
-        <v>140</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
-      </c>
-      <c r="F221" t="s">
-        <v>223</v>
-      </c>
-      <c r="G221" t="s">
-        <v>219</v>
-      </c>
-      <c r="H221" t="s">
-        <v>341</v>
-      </c>
-      <c r="I221">
-        <v>78</v>
-      </c>
-      <c r="J221">
-        <v>6</v>
-      </c>
-      <c r="K221" t="s">
-        <v>457</v>
-      </c>
-      <c r="L221">
-        <v>6</v>
-      </c>
-      <c r="M221" t="s">
-        <v>441</v>
-      </c>
-      <c r="N221" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" t="s">
-        <v>225</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" t="s">
-        <v>458</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>224</v>
-      </c>
-      <c r="B223">
-        <v>2</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
-      </c>
-      <c r="F223" t="s">
-        <v>226</v>
-      </c>
-      <c r="G223" t="s">
-        <v>224</v>
-      </c>
-      <c r="H223" t="s">
-        <v>343</v>
-      </c>
-      <c r="I223">
-        <v>79</v>
-      </c>
-      <c r="J223">
-        <v>7</v>
-      </c>
-      <c r="K223" t="s">
-        <v>450</v>
-      </c>
-      <c r="L223">
-        <v>7</v>
-      </c>
-      <c r="M223" t="s">
-        <v>441</v>
-      </c>
-      <c r="N223" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224" t="s">
-        <v>5</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224" t="s">
-        <v>227</v>
-      </c>
-      <c r="G224" t="s">
-        <v>224</v>
-      </c>
-      <c r="H224" t="s">
-        <v>343</v>
-      </c>
-      <c r="I224">
-        <v>80</v>
-      </c>
-      <c r="J224">
-        <v>7</v>
-      </c>
-      <c r="K224" t="s">
-        <v>419</v>
-      </c>
-      <c r="L224">
-        <v>7</v>
-      </c>
-      <c r="M224" t="s">
-        <v>441</v>
-      </c>
-      <c r="N224" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>224</v>
-      </c>
-      <c r="B225">
-        <v>7</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225" t="s">
-        <v>140</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
-      </c>
-      <c r="F225" t="s">
-        <v>228</v>
-      </c>
-      <c r="G225" t="s">
-        <v>224</v>
-      </c>
-      <c r="H225" t="s">
-        <v>343</v>
-      </c>
-      <c r="I225">
-        <v>81</v>
-      </c>
-      <c r="J225">
-        <v>7</v>
-      </c>
-      <c r="K225" t="s">
-        <v>451</v>
-      </c>
-      <c r="L225">
-        <v>7</v>
-      </c>
-      <c r="M225" t="s">
-        <v>441</v>
-      </c>
-      <c r="N225" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" t="s">
-        <v>230</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" t="s">
-        <v>458</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>229</v>
-      </c>
-      <c r="B227">
-        <v>2</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227" t="s">
-        <v>3</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227" t="s">
-        <v>231</v>
-      </c>
-      <c r="G227" t="s">
-        <v>229</v>
-      </c>
-      <c r="H227" t="s">
-        <v>345</v>
-      </c>
-      <c r="I227">
-        <v>82</v>
-      </c>
-      <c r="J227">
-        <v>8</v>
-      </c>
-      <c r="K227" t="s">
-        <v>452</v>
-      </c>
-      <c r="L227">
-        <v>8</v>
-      </c>
-      <c r="M227" t="s">
-        <v>441</v>
-      </c>
-      <c r="N227" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>229</v>
-      </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228" t="s">
-        <v>5</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
-        <v>232</v>
-      </c>
-      <c r="G228" t="s">
-        <v>229</v>
-      </c>
-      <c r="H228" t="s">
-        <v>345</v>
-      </c>
-      <c r="I228">
-        <v>83</v>
-      </c>
-      <c r="J228">
-        <v>8</v>
-      </c>
-      <c r="K228" t="s">
-        <v>453</v>
-      </c>
-      <c r="L228">
-        <v>8</v>
-      </c>
-      <c r="M228" t="s">
-        <v>441</v>
-      </c>
-      <c r="N228" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229">
-        <v>7</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229" t="s">
-        <v>140</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229" t="s">
-        <v>233</v>
-      </c>
-      <c r="G229" t="s">
-        <v>229</v>
-      </c>
-      <c r="H229" t="s">
-        <v>345</v>
-      </c>
-      <c r="I229">
-        <v>84</v>
-      </c>
-      <c r="J229">
-        <v>8</v>
-      </c>
-      <c r="K229" t="s">
-        <v>454</v>
-      </c>
-      <c r="L229">
-        <v>8</v>
-      </c>
-      <c r="M229" t="s">
-        <v>441</v>
-      </c>
-      <c r="N229" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" t="s">
-        <v>235</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" t="s">
-        <v>416</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>234</v>
-      </c>
-      <c r="B231">
-        <v>2</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231" t="s">
-        <v>3</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231" t="s">
-        <v>236</v>
-      </c>
-      <c r="G231" t="s">
-        <v>234</v>
-      </c>
-      <c r="H231" t="s">
-        <v>466</v>
-      </c>
-      <c r="I231">
-        <v>17</v>
-      </c>
-      <c r="J231">
-        <v>9</v>
-      </c>
-      <c r="K231" t="s">
-        <v>467</v>
-      </c>
-      <c r="L231">
-        <v>9</v>
-      </c>
-      <c r="M231" t="s">
-        <v>468</v>
-      </c>
-      <c r="N231" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>234</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232" t="s">
-        <v>5</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232" t="s">
-        <v>237</v>
-      </c>
-      <c r="G232" t="s">
-        <v>234</v>
-      </c>
-      <c r="H232" t="s">
-        <v>466</v>
-      </c>
-      <c r="I232">
-        <v>18</v>
-      </c>
-      <c r="J232">
-        <v>9</v>
-      </c>
-      <c r="K232" t="s">
-        <v>469</v>
-      </c>
-      <c r="L232">
-        <v>9</v>
-      </c>
-      <c r="M232" t="s">
-        <v>470</v>
-      </c>
-      <c r="N232" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>234</v>
-      </c>
-      <c r="B233">
-        <v>7</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233" t="s">
-        <v>140</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-      <c r="F233" t="s">
-        <v>238</v>
-      </c>
-      <c r="G233" t="s">
-        <v>234</v>
-      </c>
-      <c r="H233" t="s">
-        <v>471</v>
-      </c>
-      <c r="I233">
-        <v>19</v>
-      </c>
-      <c r="J233">
-        <v>10</v>
-      </c>
-      <c r="K233" t="s">
-        <v>472</v>
-      </c>
-      <c r="L233">
-        <v>10</v>
-      </c>
-      <c r="M233" t="s">
-        <v>473</v>
-      </c>
-      <c r="N233" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="I234" s="4">
-        <v>20</v>
-      </c>
-      <c r="J234" s="4">
-        <v>10</v>
-      </c>
-      <c r="K234" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="L234" s="4">
-        <v>10</v>
-      </c>
-      <c r="M234" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="N234" s="5" t="s">
-        <v>471</v>
-      </c>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="7"/>
+      <c r="J234" s="7"/>
+      <c r="K234" s="7"/>
+      <c r="L234" s="7"/>
+      <c r="M234" s="7"/>
+      <c r="N234" s="8"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
@@ -14863,121 +14542,113 @@
     </row>
     <row r="370" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="340">
-    <mergeCell ref="H226:J226"/>
-    <mergeCell ref="L226:N226"/>
-    <mergeCell ref="H230:J230"/>
-    <mergeCell ref="L230:N230"/>
-    <mergeCell ref="H206:J206"/>
-    <mergeCell ref="L206:N206"/>
-    <mergeCell ref="H210:J210"/>
-    <mergeCell ref="L210:N210"/>
-    <mergeCell ref="H214:J214"/>
-    <mergeCell ref="L214:N214"/>
-    <mergeCell ref="H218:J218"/>
-    <mergeCell ref="L218:N218"/>
-    <mergeCell ref="H222:J222"/>
-    <mergeCell ref="L222:N222"/>
-    <mergeCell ref="H190:J190"/>
-    <mergeCell ref="L190:N190"/>
-    <mergeCell ref="H194:J194"/>
-    <mergeCell ref="L194:N194"/>
-    <mergeCell ref="H197:J197"/>
-    <mergeCell ref="L197:N197"/>
-    <mergeCell ref="H200:J200"/>
-    <mergeCell ref="L200:N200"/>
+  <mergeCells count="332">
     <mergeCell ref="H203:J203"/>
     <mergeCell ref="L203:N203"/>
-    <mergeCell ref="H170:J170"/>
-    <mergeCell ref="L170:N170"/>
-    <mergeCell ref="H174:J174"/>
-    <mergeCell ref="L174:N174"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="L178:N178"/>
+    <mergeCell ref="H207:J207"/>
+    <mergeCell ref="L207:N207"/>
+    <mergeCell ref="H211:J211"/>
+    <mergeCell ref="L211:N211"/>
+    <mergeCell ref="H185:J185"/>
+    <mergeCell ref="L185:N185"/>
+    <mergeCell ref="H188:J188"/>
+    <mergeCell ref="L188:N188"/>
+    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="L191:N191"/>
+    <mergeCell ref="H195:J195"/>
+    <mergeCell ref="L195:N195"/>
+    <mergeCell ref="H199:J199"/>
+    <mergeCell ref="L199:N199"/>
+    <mergeCell ref="H167:J167"/>
+    <mergeCell ref="L167:N167"/>
+    <mergeCell ref="H171:J171"/>
+    <mergeCell ref="L171:N171"/>
+    <mergeCell ref="H175:J175"/>
+    <mergeCell ref="L175:N175"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="L179:N179"/>
     <mergeCell ref="H182:J182"/>
     <mergeCell ref="L182:N182"/>
-    <mergeCell ref="H186:J186"/>
-    <mergeCell ref="L186:N186"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="L150:N150"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="L154:N154"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="L158:N158"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="L162:N162"/>
-    <mergeCell ref="H166:J166"/>
-    <mergeCell ref="L166:N166"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="L130:N130"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="L134:N134"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="L138:N138"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="L146:N146"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="L147:N147"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="L151:N151"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="L155:N155"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="L159:N159"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="L163:N163"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="L127:N127"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="L135:N135"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="L139:N139"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="L143:N143"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="L115:N115"/>
     <mergeCell ref="H119:J119"/>
     <mergeCell ref="L119:N119"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="L122:N122"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="L126:N126"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="L123:N123"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="H98:J98"/>
     <mergeCell ref="L98:N98"/>
     <mergeCell ref="H101:J101"/>
     <mergeCell ref="L101:N101"/>
     <mergeCell ref="H104:J104"/>
     <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="L80:N80"/>
     <mergeCell ref="H83:J83"/>
     <mergeCell ref="L83:N83"/>
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="L86:N86"/>
     <mergeCell ref="H89:J89"/>
     <mergeCell ref="L89:N89"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="L65:N65"/>
     <mergeCell ref="H68:J68"/>
     <mergeCell ref="L68:N68"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="L71:N71"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="L74:N74"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="L53:N53"/>
     <mergeCell ref="H56:J56"/>
     <mergeCell ref="L56:N56"/>
     <mergeCell ref="H59:J59"/>
     <mergeCell ref="L59:N59"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="L44:N44"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="H20:J20"/>
@@ -14986,8 +14657,8 @@
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="L26:N26"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="H5:J5"/>
